--- a/data/trans_dic/IP29_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP29_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -578,52 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>36,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>23,26%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>28,92%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>62,38%</t>
+          <t>30,36%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,23; 31,62</t>
+          <t>21,48; 35,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 26,25</t>
+          <t>16,04; 27,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,03; 29,9</t>
+          <t>18,11; 31,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,0; 79,97</t>
+          <t>24,49; 40,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,44; 36,59</t>
+          <t>22,55; 35,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 32,48</t>
+          <t>29,83; 43,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,65; 40,57</t>
+          <t>25,06; 35,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,14; 75,02</t>
+          <t>20,89; 29,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 31,82</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>19,25; 27,52</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>24,19; 33,8</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>50,96; 72,46</t>
+          <t>25,81; 35,13</t>
         </is>
       </c>
     </row>
@@ -796,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,52 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>24,98%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>30,97%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>57,28%</t>
+          <t>31,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,8; 36,09</t>
+          <t>26,73; 36,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,31; 29,64</t>
+          <t>20,49; 29,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 36,79</t>
+          <t>27,22; 36,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,54; 71,75</t>
+          <t>25,31; 34,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,53; 33,61</t>
+          <t>20,09; 29,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 30,31</t>
+          <t>25,49; 35,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 35,65</t>
+          <t>27,17; 33,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 61,15</t>
+          <t>21,77; 28,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,83; 33,33</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>21,43; 28,11</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>27,83; 34,76</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>49,62; 63,17</t>
+          <t>27,85; 34,75</t>
         </is>
       </c>
     </row>
@@ -936,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,52 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>26,74%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>30,1%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>65,58%</t>
+          <t>30,22%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 25,85</t>
+          <t>14,74; 26,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 27,94</t>
+          <t>17,13; 28,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,51; 42,04</t>
+          <t>29,82; 41,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,36; 71,11</t>
+          <t>26,5; 39,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,38; 39,35</t>
+          <t>25,43; 37,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,72; 37,62</t>
+          <t>19,72; 29,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,52; 29,6</t>
+          <t>21,74; 30,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,1; 76,02</t>
+          <t>23,08; 31,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,99; 30,44</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>22,29; 30,82</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>26,59; 34,5</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>59,95; 72,0</t>
+          <t>26,35; 34,57</t>
         </is>
       </c>
     </row>
@@ -1076,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,52 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>24,85%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>26,69%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>62,26%</t>
+          <t>26,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 36,34</t>
+          <t>26,89; 37,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 30,77</t>
+          <t>20,32; 31,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,16; 32,0</t>
+          <t>20,22; 31,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,94; 71,41</t>
+          <t>27,74; 38,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,09; 37,91</t>
+          <t>19,74; 30,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 30,56</t>
+          <t>22,49; 33,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,73; 33,16</t>
+          <t>28,33; 36,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,14; 68,27</t>
+          <t>20,99; 28,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,06; 35,71</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>21,45; 28,94</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>23,06; 31,35</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>56,32; 68,43</t>
+          <t>23,47; 31,56</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>24,98%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>62,07%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,03; 30,77</t>
+          <t>25,91; 31,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,24</t>
+          <t>21,29; 26,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 32,93</t>
+          <t>27,66; 33,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,07; 68,89</t>
+          <t>28,6; 34,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,79; 33,57</t>
+          <t>24,42; 30,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,62</t>
+          <t>26,35; 31,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 31,68</t>
+          <t>28,23; 32,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>55,05; 64,8</t>
+          <t>23,54; 27,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 31,43</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>23,2; 27,08</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>27,52; 31,33</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>58,41; 65,41</t>
+          <t>27,63; 31,58</t>
         </is>
       </c>
     </row>
@@ -1352,15 +1178,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/IP29_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP29_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>27,99%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>21,45%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>24,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>32,03%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>28,58%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>36,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 35,4</t>
+          <t>24,62; 40,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 27,9</t>
+          <t>22,36; 35,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 31,19</t>
+          <t>28,44; 42,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 40,47</t>
+          <t>21,03; 34,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 35,5</t>
+          <t>15,7; 28,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,83; 43,44</t>
+          <t>18,5; 30,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 35,21</t>
+          <t>24,59; 35,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,89; 29,21</t>
+          <t>20,8; 29,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,81; 35,13</t>
+          <t>26,08; 35,09</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>31,16%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>24,89%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>31,79%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>29,53%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>25,08%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 36,28</t>
+          <t>25,39; 33,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 29,49</t>
+          <t>20,41; 29,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,22; 36,24</t>
+          <t>25,03; 35,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,31; 34,68</t>
+          <t>26,69; 35,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,09; 29,51</t>
+          <t>20,9; 29,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,49; 35,64</t>
+          <t>27,46; 36,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 33,81</t>
+          <t>27,22; 33,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,77; 28,03</t>
+          <t>22,09; 28,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,85; 34,75</t>
+          <t>27,41; 34,52</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>32,67%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>20,04%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>22,25%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>36,2%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,67%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>31,19%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>24,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 26,09</t>
+          <t>26,27; 40,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 28,63</t>
+          <t>25,74; 37,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,82; 41,83</t>
+          <t>19,81; 30,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 39,7</t>
+          <t>14,92; 26,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 37,99</t>
+          <t>17,39; 28,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 29,75</t>
+          <t>30,54; 41,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,74; 30,73</t>
+          <t>21,43; 31,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 31,18</t>
+          <t>22,55; 30,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,35; 34,57</t>
+          <t>26,63; 34,34</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>32,79%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27,73%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>31,51%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>25,31%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>26,03%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>32,79%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>24,59%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>27,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,89; 37,35</t>
+          <t>27,61; 38,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,32; 31,15</t>
+          <t>19,65; 30,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 31,99</t>
+          <t>22,09; 33,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 38,63</t>
+          <t>26,16; 36,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,74; 30,72</t>
+          <t>19,85; 30,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 33,84</t>
+          <t>20,54; 31,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 36,07</t>
+          <t>28,17; 36,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 28,75</t>
+          <t>21,27; 29,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 31,56</t>
+          <t>23,0; 31,32</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>28,59%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>23,79%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>30,36%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,42%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,91; 31,32</t>
+          <t>28,5; 34,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,29; 26,67</t>
+          <t>24,09; 29,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,66; 33,13</t>
+          <t>26,45; 32,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,6; 34,47</t>
+          <t>25,83; 31,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 30,01</t>
+          <t>21,33; 26,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,35; 31,94</t>
+          <t>27,57; 33,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,23; 32,04</t>
+          <t>27,97; 32,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,54; 27,21</t>
+          <t>23,35; 27,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,63; 31,58</t>
+          <t>27,83; 31,77</t>
         </is>
       </c>
     </row>
